--- a/data/134/DEUSTATIS/National accounts - GDP years.xlsx
+++ b/data/134/DEUSTATIS/National accounts - GDP years.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="60">
   <si>
     <t>National accounts - Gross value added, gross domestic
 product (nominal/price-adjusted): Germany, years</t>
@@ -120,6 +120,9 @@
     <t>2020</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>At current prices (bn EUR)</t>
   </si>
   <si>
@@ -189,7 +192,7 @@
     <t>Annual change in %.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:37:19</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:37:20</t>
   </si>
 </sst>
 </file>
@@ -634,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -815,6 +818,10 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -943,6 +950,10 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -952,6 +963,10 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1125,6 +1140,7 @@
     <col min="30" max="30" width="10.12890625" customWidth="true"/>
     <col min="31" max="31" width="10.12890625" customWidth="true"/>
     <col min="32" max="32" width="10.12890625" customWidth="true"/>
+    <col min="33" max="33" width="10.12890625" customWidth="true"/>
     <col min="1" max="1" width="46.890625" style="8" customWidth="true"/>
   </cols>
   <sheetData>
@@ -1144,114 +1160,117 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="86">
+      <c r="A4" t="s" s="88">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="87">
+      <c r="B4" t="s" s="89">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="88">
+      <c r="C4" t="s" s="90">
         <v>5</v>
       </c>
-      <c r="D4" t="s" s="89">
+      <c r="D4" t="s" s="91">
         <v>6</v>
       </c>
-      <c r="E4" t="s" s="90">
+      <c r="E4" t="s" s="92">
         <v>7</v>
       </c>
-      <c r="F4" t="s" s="91">
+      <c r="F4" t="s" s="93">
         <v>8</v>
       </c>
-      <c r="G4" t="s" s="92">
+      <c r="G4" t="s" s="94">
         <v>9</v>
       </c>
-      <c r="H4" t="s" s="93">
+      <c r="H4" t="s" s="95">
         <v>10</v>
       </c>
-      <c r="I4" t="s" s="94">
+      <c r="I4" t="s" s="96">
         <v>11</v>
       </c>
-      <c r="J4" t="s" s="95">
+      <c r="J4" t="s" s="97">
         <v>12</v>
       </c>
-      <c r="K4" t="s" s="96">
+      <c r="K4" t="s" s="98">
         <v>13</v>
       </c>
-      <c r="L4" t="s" s="97">
+      <c r="L4" t="s" s="99">
         <v>14</v>
       </c>
-      <c r="M4" t="s" s="98">
+      <c r="M4" t="s" s="100">
         <v>15</v>
       </c>
-      <c r="N4" t="s" s="99">
+      <c r="N4" t="s" s="101">
         <v>16</v>
       </c>
-      <c r="O4" t="s" s="100">
+      <c r="O4" t="s" s="102">
         <v>17</v>
       </c>
-      <c r="P4" t="s" s="101">
+      <c r="P4" t="s" s="103">
         <v>18</v>
       </c>
-      <c r="Q4" t="s" s="102">
+      <c r="Q4" t="s" s="104">
         <v>19</v>
       </c>
-      <c r="R4" t="s" s="103">
+      <c r="R4" t="s" s="105">
         <v>20</v>
       </c>
-      <c r="S4" t="s" s="104">
+      <c r="S4" t="s" s="106">
         <v>21</v>
       </c>
-      <c r="T4" t="s" s="105">
+      <c r="T4" t="s" s="107">
         <v>22</v>
       </c>
-      <c r="U4" t="s" s="106">
+      <c r="U4" t="s" s="108">
         <v>23</v>
       </c>
-      <c r="V4" t="s" s="107">
+      <c r="V4" t="s" s="109">
         <v>24</v>
       </c>
-      <c r="W4" t="s" s="108">
+      <c r="W4" t="s" s="110">
         <v>25</v>
       </c>
-      <c r="X4" t="s" s="109">
+      <c r="X4" t="s" s="111">
         <v>26</v>
       </c>
-      <c r="Y4" t="s" s="110">
+      <c r="Y4" t="s" s="112">
         <v>27</v>
       </c>
-      <c r="Z4" t="s" s="111">
+      <c r="Z4" t="s" s="113">
         <v>28</v>
       </c>
-      <c r="AA4" t="s" s="112">
+      <c r="AA4" t="s" s="114">
         <v>29</v>
       </c>
-      <c r="AB4" t="s" s="113">
+      <c r="AB4" t="s" s="115">
         <v>30</v>
       </c>
-      <c r="AC4" t="s" s="114">
+      <c r="AC4" t="s" s="116">
         <v>31</v>
       </c>
-      <c r="AD4" t="s" s="115">
+      <c r="AD4" t="s" s="117">
         <v>32</v>
       </c>
-      <c r="AE4" t="s" s="116">
+      <c r="AE4" t="s" s="118">
         <v>33</v>
       </c>
-      <c r="AF4" t="s" s="117">
+      <c r="AF4" t="s" s="119">
         <v>34</v>
+      </c>
+      <c r="AG4" t="s" s="120">
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="33.75" customHeight="true">
       <c r="A5" t="s" s="15">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n" s="11">
         <v>1442.996</v>
@@ -1343,13 +1362,16 @@
       <c r="AF6" t="n" s="11">
         <v>3050.322</v>
       </c>
+      <c r="AG6" t="n" s="11">
+        <v>3228.945</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="14">
         <v>38</v>
-      </c>
-      <c r="B7" t="s" s="14">
-        <v>37</v>
       </c>
       <c r="C7" t="n" s="11">
         <v>142.804</v>
@@ -1441,13 +1463,16 @@
       <c r="AF7" t="n" s="11">
         <v>317.238</v>
       </c>
+      <c r="AG7" t="n" s="11">
+        <v>341.675</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n" s="11">
         <v>152.551</v>
@@ -1539,13 +1564,16 @@
       <c r="AF8" t="n" s="11">
         <v>325.991</v>
       </c>
+      <c r="AG8" t="n" s="11">
+        <v>363.543</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n" s="11">
         <v>9.747</v>
@@ -1637,13 +1665,16 @@
       <c r="AF9" t="n" s="11">
         <v>8.753</v>
       </c>
+      <c r="AG9" t="n" s="11">
+        <v>21.868</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n" s="11">
         <v>1585.8</v>
@@ -1735,16 +1766,19 @@
       <c r="AF10" t="n" s="11">
         <v>3367.56</v>
       </c>
+      <c r="AG10" t="n" s="11">
+        <v>3570.62</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s" s="14">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="n" s="11">
         <v>7.3</v>
@@ -1833,13 +1867,16 @@
       <c r="AF11" t="n" s="11">
         <v>-3.0</v>
       </c>
+      <c r="AG11" t="n" s="11">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="n" s="11">
         <v>19829.0</v>
@@ -1931,18 +1968,21 @@
       <c r="AF12" t="n" s="11">
         <v>40494.0</v>
       </c>
+      <c r="AG12" t="n" s="11">
+        <v>42918.0</v>
+      </c>
     </row>
     <row r="13" ht="33.75" customHeight="true">
       <c r="A13" t="s" s="15">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="n" s="11">
         <v>71.99</v>
@@ -2034,13 +2074,16 @@
       <c r="AF14" t="n" s="11">
         <v>102.1</v>
       </c>
+      <c r="AG14" t="n" s="11">
+        <v>105.09</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s" s="14">
         <v>38</v>
-      </c>
-      <c r="B15" t="s" s="14">
-        <v>37</v>
       </c>
       <c r="C15" t="n" s="11">
         <v>87.6</v>
@@ -2132,13 +2175,16 @@
       <c r="AF15" t="n" s="11">
         <v>104.41</v>
       </c>
+      <c r="AG15" t="n" s="11">
+        <v>107.13</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="n" s="11">
         <v>91.4</v>
@@ -2230,13 +2276,16 @@
       <c r="AF16" t="n" s="11">
         <v>104.04</v>
       </c>
+      <c r="AG16" t="n" s="11">
+        <v>107.22</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n" s="11">
         <v>262.99</v>
@@ -2328,13 +2377,16 @@
       <c r="AF17" t="n" s="11">
         <v>88.51</v>
       </c>
+      <c r="AG17" t="n" s="11">
+        <v>105.86</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="n" s="11">
         <v>73.32</v>
@@ -2426,16 +2478,19 @@
       <c r="AF18" t="n" s="11">
         <v>102.33</v>
       </c>
+      <c r="AG18" t="n" s="11">
+        <v>105.29</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s" s="14">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" t="n" s="11">
         <v>1.9</v>
@@ -2524,13 +2579,16 @@
       <c r="AF19" t="n" s="11">
         <v>-4.6</v>
       </c>
+      <c r="AG19" t="n" s="11">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n" s="11">
         <v>74.89</v>
@@ -2622,18 +2680,21 @@
       <c r="AF20" t="n" s="11">
         <v>100.52</v>
       </c>
+      <c r="AG20" t="n" s="11">
+        <v>103.38</v>
+      </c>
     </row>
     <row r="21" ht="33.75" customHeight="true">
       <c r="A21" t="s" s="15">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="n" s="11">
         <v>1959.582</v>
@@ -2725,307 +2786,319 @@
       <c r="AF22" t="n" s="11">
         <v>2779.182</v>
       </c>
+      <c r="AG22" t="n" s="11">
+        <v>2860.571</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s" s="14">
         <v>38</v>
       </c>
-      <c r="B23" t="s" s="14">
-        <v>37</v>
-      </c>
       <c r="C23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF23" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="AG23" t="s" s="11">
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF24" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="AG24" t="s" s="11">
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF25" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="AG25" t="s" s="11">
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" t="n" s="11">
         <v>2218.795</v>
@@ -3117,16 +3190,19 @@
       <c r="AF26" t="n" s="11">
         <v>3096.69</v>
       </c>
+      <c r="AG26" t="n" s="11">
+        <v>3186.265</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s" s="14">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D27" t="n" s="11">
         <v>1.9</v>
@@ -3215,119 +3291,125 @@
       <c r="AF27" t="n" s="11">
         <v>-4.6</v>
       </c>
+      <c r="AG27" t="n" s="11">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF28" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="AG28" t="s" s="11">
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="33.75" customHeight="true">
       <c r="A29" t="s" s="15">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30" t="n" s="11">
         <v>1470.781</v>
@@ -3416,310 +3498,322 @@
       <c r="AF30" t="n" s="11">
         <v>2978.833</v>
       </c>
+      <c r="AG30" t="n" s="11">
+        <v>3139.529</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s" s="14">
         <v>38</v>
       </c>
-      <c r="B31" t="s" s="14">
-        <v>37</v>
-      </c>
       <c r="C31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF31" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="AG31" t="s" s="11">
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF32" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="AG32" t="s" s="11">
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF33" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="AG33" t="s" s="11">
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D34" t="n" s="11">
         <v>1616.284</v>
@@ -3808,266 +3902,275 @@
       <c r="AF34" t="n" s="11">
         <v>3314.818</v>
       </c>
+      <c r="AG34" t="n" s="11">
+        <v>3465.016</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s" s="14">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF35" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="AG35" t="s" s="11">
+        <v>45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF36" t="s" s="11">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="AG36" t="s" s="11">
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="12">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="12">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="12">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="12">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="12">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="12">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="12">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="13">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="A3:AF3"/>
-    <mergeCell ref="A5:AF5"/>
-    <mergeCell ref="A13:AF13"/>
-    <mergeCell ref="A21:AF21"/>
-    <mergeCell ref="A29:AF29"/>
-    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="A3:AG3"/>
+    <mergeCell ref="A5:AG5"/>
+    <mergeCell ref="A13:AG13"/>
+    <mergeCell ref="A21:AG21"/>
+    <mergeCell ref="A29:AG29"/>
+    <mergeCell ref="A1:AG1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:37:23&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:37:23&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>